--- a/wavecovid_public_r_.xlsx
+++ b/wavecovid_public_r_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/benjamin_imsa_student_kuleuven_be/Documents/SIGMA internship/Codebook/Interactive-Codebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_6000DFC48F79A8D366075C52F37BD2725AC0F643" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7618F453-87F1-1D48-AB68-C8EAE3BEC152}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_6000DFC48F79A8D366075C52F37BD2725AC0F643" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06BC720B-35EC-9B40-B496-44E206553D5E}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3130,9 +3130,6 @@
     <t>Heb je er sinds de coronamaatregelen (13 maart) aan gedacht om jezelf opzettelijk te verwonden, pijn te doen of te vergiftigen (zonder dat je de wens had om te sterven)?</t>
   </si>
   <si>
-    <t>Since he start of the corona measures (March 13), have you thought about harming yourself, but without wanting to die?</t>
-  </si>
-  <si>
     <t>selfharm_nsi_behav_lifetime</t>
   </si>
   <si>
@@ -4307,6 +4304,9 @@
   </si>
   <si>
     <t>During the corona measures (since March 13): I like the way my family celebrates things (e.g., holidays or other things that are specific to my culture).</t>
+  </si>
+  <si>
+    <t>Since the start of the corona measures (March 13), have you thought about harming yourself, but without wanting to die?</t>
   </si>
 </sst>
 </file>
@@ -4370,6 +4370,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4695,8 +4699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="E456" sqref="E456"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="G374" sqref="G374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14644,7 +14648,7 @@
         <v>1035</v>
       </c>
       <c r="I374" t="s">
-        <v>1036</v>
+        <v>1428</v>
       </c>
       <c r="O374" t="s">
         <v>21</v>
@@ -14652,7 +14656,7 @@
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B375" t="s">
         <v>1027</v>
@@ -14667,10 +14671,10 @@
         <v>51</v>
       </c>
       <c r="H375" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I375" t="s">
         <v>1038</v>
-      </c>
-      <c r="I375" t="s">
-        <v>1039</v>
       </c>
       <c r="O375" t="s">
         <v>21</v>
@@ -14678,25 +14682,25 @@
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B376" t="s">
         <v>1040</v>
       </c>
-      <c r="B376" t="s">
+      <c r="C376" t="s">
+        <v>649</v>
+      </c>
+      <c r="D376" t="s">
         <v>1041</v>
       </c>
-      <c r="C376" t="s">
-        <v>649</v>
-      </c>
-      <c r="D376" t="s">
+      <c r="G376" t="s">
+        <v>51</v>
+      </c>
+      <c r="I376" t="s">
         <v>1042</v>
       </c>
-      <c r="G376" t="s">
-        <v>51</v>
-      </c>
-      <c r="I376" t="s">
+      <c r="M376" t="s">
         <v>1043</v>
-      </c>
-      <c r="M376" t="s">
-        <v>1044</v>
       </c>
       <c r="O376" t="s">
         <v>21</v>
@@ -14704,28 +14708,28 @@
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C377" t="s">
+        <v>649</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G377" t="s">
+        <v>51</v>
+      </c>
+      <c r="H377" t="s">
         <v>1045</v>
       </c>
-      <c r="B377" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C377" t="s">
-        <v>649</v>
-      </c>
-      <c r="D377" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G377" t="s">
-        <v>51</v>
-      </c>
-      <c r="H377" t="s">
+      <c r="I377" t="s">
         <v>1046</v>
       </c>
-      <c r="I377" t="s">
-        <v>1047</v>
-      </c>
       <c r="M377" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O377" t="s">
         <v>21</v>
@@ -14733,28 +14737,28 @@
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C378" t="s">
+        <v>649</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G378" t="s">
+        <v>51</v>
+      </c>
+      <c r="H378" t="s">
         <v>1048</v>
       </c>
-      <c r="B378" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C378" t="s">
-        <v>649</v>
-      </c>
-      <c r="D378" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G378" t="s">
-        <v>51</v>
-      </c>
-      <c r="H378" t="s">
+      <c r="I378" t="s">
         <v>1049</v>
       </c>
-      <c r="I378" t="s">
-        <v>1050</v>
-      </c>
       <c r="M378" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O378" t="s">
         <v>21</v>
@@ -14762,28 +14766,28 @@
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B379" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C379" t="s">
+        <v>649</v>
+      </c>
+      <c r="D379" t="s">
         <v>1041</v>
       </c>
-      <c r="C379" t="s">
-        <v>649</v>
-      </c>
-      <c r="D379" t="s">
-        <v>1042</v>
-      </c>
       <c r="G379" t="s">
         <v>51</v>
       </c>
       <c r="H379" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I379" t="s">
         <v>1046</v>
       </c>
-      <c r="I379" t="s">
-        <v>1047</v>
-      </c>
       <c r="M379" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O379" t="s">
         <v>21</v>
@@ -14791,28 +14795,28 @@
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C380" t="s">
+        <v>649</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G380" t="s">
+        <v>51</v>
+      </c>
+      <c r="H380" t="s">
         <v>1052</v>
       </c>
-      <c r="B380" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C380" t="s">
-        <v>649</v>
-      </c>
-      <c r="D380" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G380" t="s">
-        <v>51</v>
-      </c>
-      <c r="H380" t="s">
+      <c r="I380" t="s">
         <v>1053</v>
       </c>
-      <c r="I380" t="s">
-        <v>1054</v>
-      </c>
       <c r="M380" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O380" t="s">
         <v>21</v>
@@ -14820,28 +14824,28 @@
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B381" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C381" t="s">
+        <v>649</v>
+      </c>
+      <c r="D381" t="s">
         <v>1041</v>
       </c>
-      <c r="C381" t="s">
-        <v>649</v>
-      </c>
-      <c r="D381" t="s">
-        <v>1042</v>
-      </c>
       <c r="G381" t="s">
         <v>51</v>
       </c>
       <c r="H381" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I381" t="s">
         <v>1046</v>
       </c>
-      <c r="I381" t="s">
-        <v>1047</v>
-      </c>
       <c r="M381" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O381" t="s">
         <v>21</v>
@@ -14849,28 +14853,28 @@
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C382" t="s">
+        <v>649</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G382" t="s">
+        <v>51</v>
+      </c>
+      <c r="H382" t="s">
         <v>1056</v>
       </c>
-      <c r="B382" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C382" t="s">
-        <v>649</v>
-      </c>
-      <c r="D382" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G382" t="s">
-        <v>51</v>
-      </c>
-      <c r="H382" t="s">
+      <c r="I382" t="s">
         <v>1057</v>
       </c>
-      <c r="I382" t="s">
-        <v>1058</v>
-      </c>
       <c r="M382" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O382" t="s">
         <v>21</v>
@@ -14878,28 +14882,28 @@
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B383" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C383" t="s">
+        <v>649</v>
+      </c>
+      <c r="D383" t="s">
         <v>1041</v>
       </c>
-      <c r="C383" t="s">
-        <v>649</v>
-      </c>
-      <c r="D383" t="s">
-        <v>1042</v>
-      </c>
       <c r="G383" t="s">
         <v>51</v>
       </c>
       <c r="H383" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I383" t="s">
         <v>1046</v>
       </c>
-      <c r="I383" t="s">
-        <v>1047</v>
-      </c>
       <c r="M383" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O383" t="s">
         <v>21</v>
@@ -14907,28 +14911,28 @@
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C384" t="s">
+        <v>649</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G384" t="s">
+        <v>51</v>
+      </c>
+      <c r="H384" t="s">
         <v>1060</v>
       </c>
-      <c r="B384" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C384" t="s">
-        <v>649</v>
-      </c>
-      <c r="D384" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G384" t="s">
-        <v>51</v>
-      </c>
-      <c r="H384" t="s">
+      <c r="I384" t="s">
         <v>1061</v>
       </c>
-      <c r="I384" t="s">
-        <v>1062</v>
-      </c>
       <c r="M384" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O384" t="s">
         <v>21</v>
@@ -14936,28 +14940,28 @@
     </row>
     <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B385" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C385" t="s">
+        <v>649</v>
+      </c>
+      <c r="D385" t="s">
         <v>1041</v>
       </c>
-      <c r="C385" t="s">
-        <v>649</v>
-      </c>
-      <c r="D385" t="s">
-        <v>1042</v>
-      </c>
       <c r="G385" t="s">
         <v>51</v>
       </c>
       <c r="H385" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I385" t="s">
         <v>1046</v>
       </c>
-      <c r="I385" t="s">
-        <v>1047</v>
-      </c>
       <c r="M385" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O385" t="s">
         <v>21</v>
@@ -14965,28 +14969,28 @@
     </row>
     <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C386" t="s">
+        <v>649</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G386" t="s">
+        <v>51</v>
+      </c>
+      <c r="H386" t="s">
         <v>1064</v>
       </c>
-      <c r="B386" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C386" t="s">
-        <v>649</v>
-      </c>
-      <c r="D386" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G386" t="s">
-        <v>51</v>
-      </c>
-      <c r="H386" t="s">
+      <c r="I386" t="s">
         <v>1065</v>
       </c>
-      <c r="I386" t="s">
-        <v>1066</v>
-      </c>
       <c r="M386" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O386" t="s">
         <v>21</v>
@@ -14994,28 +14998,28 @@
     </row>
     <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B387" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C387" t="s">
+        <v>649</v>
+      </c>
+      <c r="D387" t="s">
         <v>1041</v>
       </c>
-      <c r="C387" t="s">
-        <v>649</v>
-      </c>
-      <c r="D387" t="s">
-        <v>1042</v>
-      </c>
       <c r="G387" t="s">
         <v>51</v>
       </c>
       <c r="H387" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I387" t="s">
         <v>1046</v>
       </c>
-      <c r="I387" t="s">
-        <v>1047</v>
-      </c>
       <c r="M387" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O387" t="s">
         <v>21</v>
@@ -15023,28 +15027,28 @@
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C388" t="s">
+        <v>649</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G388" t="s">
+        <v>51</v>
+      </c>
+      <c r="H388" t="s">
         <v>1068</v>
       </c>
-      <c r="B388" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C388" t="s">
-        <v>649</v>
-      </c>
-      <c r="D388" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G388" t="s">
-        <v>51</v>
-      </c>
-      <c r="H388" t="s">
+      <c r="I388" t="s">
         <v>1069</v>
       </c>
-      <c r="I388" t="s">
-        <v>1070</v>
-      </c>
       <c r="M388" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O388" t="s">
         <v>21</v>
@@ -15052,28 +15056,28 @@
     </row>
     <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B389" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C389" t="s">
+        <v>649</v>
+      </c>
+      <c r="D389" t="s">
         <v>1041</v>
       </c>
-      <c r="C389" t="s">
-        <v>649</v>
-      </c>
-      <c r="D389" t="s">
-        <v>1042</v>
-      </c>
       <c r="G389" t="s">
         <v>51</v>
       </c>
       <c r="H389" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I389" t="s">
         <v>1046</v>
       </c>
-      <c r="I389" t="s">
-        <v>1047</v>
-      </c>
       <c r="M389" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O389" t="s">
         <v>21</v>
@@ -15081,28 +15085,28 @@
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C390" t="s">
+        <v>649</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G390" t="s">
+        <v>51</v>
+      </c>
+      <c r="H390" t="s">
         <v>1072</v>
       </c>
-      <c r="B390" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C390" t="s">
-        <v>649</v>
-      </c>
-      <c r="D390" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G390" t="s">
-        <v>51</v>
-      </c>
-      <c r="H390" t="s">
+      <c r="I390" t="s">
         <v>1073</v>
       </c>
-      <c r="I390" t="s">
-        <v>1074</v>
-      </c>
       <c r="M390" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O390" t="s">
         <v>21</v>
@@ -15110,28 +15114,28 @@
     </row>
     <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B391" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C391" t="s">
+        <v>649</v>
+      </c>
+      <c r="D391" t="s">
         <v>1041</v>
       </c>
-      <c r="C391" t="s">
-        <v>649</v>
-      </c>
-      <c r="D391" t="s">
-        <v>1042</v>
-      </c>
       <c r="G391" t="s">
         <v>51</v>
       </c>
       <c r="H391" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I391" t="s">
         <v>1046</v>
       </c>
-      <c r="I391" t="s">
-        <v>1047</v>
-      </c>
       <c r="M391" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O391" t="s">
         <v>21</v>
@@ -15139,28 +15143,28 @@
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C392" t="s">
+        <v>649</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G392" t="s">
+        <v>51</v>
+      </c>
+      <c r="H392" t="s">
         <v>1076</v>
       </c>
-      <c r="B392" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C392" t="s">
-        <v>649</v>
-      </c>
-      <c r="D392" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G392" t="s">
-        <v>51</v>
-      </c>
-      <c r="H392" t="s">
+      <c r="I392" t="s">
         <v>1077</v>
       </c>
-      <c r="I392" t="s">
-        <v>1078</v>
-      </c>
       <c r="M392" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O392" t="s">
         <v>21</v>
@@ -15168,28 +15172,28 @@
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B393" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C393" t="s">
+        <v>649</v>
+      </c>
+      <c r="D393" t="s">
         <v>1041</v>
       </c>
-      <c r="C393" t="s">
-        <v>649</v>
-      </c>
-      <c r="D393" t="s">
-        <v>1042</v>
-      </c>
       <c r="G393" t="s">
         <v>51</v>
       </c>
       <c r="H393" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I393" t="s">
         <v>1046</v>
       </c>
-      <c r="I393" t="s">
-        <v>1047</v>
-      </c>
       <c r="M393" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O393" t="s">
         <v>21</v>
@@ -15197,28 +15201,28 @@
     </row>
     <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C394" t="s">
+        <v>649</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G394" t="s">
+        <v>51</v>
+      </c>
+      <c r="H394" t="s">
         <v>1080</v>
       </c>
-      <c r="B394" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C394" t="s">
-        <v>649</v>
-      </c>
-      <c r="D394" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G394" t="s">
-        <v>51</v>
-      </c>
-      <c r="H394" t="s">
+      <c r="I394" t="s">
         <v>1081</v>
       </c>
-      <c r="I394" t="s">
-        <v>1082</v>
-      </c>
       <c r="M394" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O394" t="s">
         <v>21</v>
@@ -15226,28 +15230,28 @@
     </row>
     <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B395" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C395" t="s">
+        <v>649</v>
+      </c>
+      <c r="D395" t="s">
         <v>1041</v>
       </c>
-      <c r="C395" t="s">
-        <v>649</v>
-      </c>
-      <c r="D395" t="s">
-        <v>1042</v>
-      </c>
       <c r="G395" t="s">
         <v>51</v>
       </c>
       <c r="H395" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I395" t="s">
         <v>1046</v>
       </c>
-      <c r="I395" t="s">
-        <v>1047</v>
-      </c>
       <c r="M395" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O395" t="s">
         <v>21</v>
@@ -15255,28 +15259,28 @@
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C396" t="s">
+        <v>649</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G396" t="s">
+        <v>51</v>
+      </c>
+      <c r="H396" t="s">
         <v>1084</v>
       </c>
-      <c r="B396" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C396" t="s">
-        <v>649</v>
-      </c>
-      <c r="D396" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G396" t="s">
-        <v>51</v>
-      </c>
-      <c r="H396" t="s">
+      <c r="I396" t="s">
         <v>1085</v>
       </c>
-      <c r="I396" t="s">
-        <v>1086</v>
-      </c>
       <c r="M396" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O396" t="s">
         <v>21</v>
@@ -15284,28 +15288,28 @@
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B397" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C397" t="s">
+        <v>649</v>
+      </c>
+      <c r="D397" t="s">
         <v>1041</v>
       </c>
-      <c r="C397" t="s">
-        <v>649</v>
-      </c>
-      <c r="D397" t="s">
-        <v>1042</v>
-      </c>
       <c r="G397" t="s">
         <v>51</v>
       </c>
       <c r="H397" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I397" t="s">
         <v>1046</v>
       </c>
-      <c r="I397" t="s">
-        <v>1047</v>
-      </c>
       <c r="M397" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O397" t="s">
         <v>21</v>
@@ -15313,28 +15317,28 @@
     </row>
     <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C398" t="s">
+        <v>649</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G398" t="s">
+        <v>51</v>
+      </c>
+      <c r="H398" t="s">
         <v>1088</v>
       </c>
-      <c r="B398" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C398" t="s">
-        <v>649</v>
-      </c>
-      <c r="D398" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G398" t="s">
-        <v>51</v>
-      </c>
-      <c r="H398" t="s">
+      <c r="I398" t="s">
         <v>1089</v>
       </c>
-      <c r="I398" t="s">
-        <v>1090</v>
-      </c>
       <c r="M398" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O398" t="s">
         <v>21</v>
@@ -15342,28 +15346,28 @@
     </row>
     <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B399" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C399" t="s">
+        <v>649</v>
+      </c>
+      <c r="D399" t="s">
         <v>1041</v>
       </c>
-      <c r="C399" t="s">
-        <v>649</v>
-      </c>
-      <c r="D399" t="s">
-        <v>1042</v>
-      </c>
       <c r="G399" t="s">
         <v>51</v>
       </c>
       <c r="H399" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I399" t="s">
         <v>1046</v>
       </c>
-      <c r="I399" t="s">
-        <v>1047</v>
-      </c>
       <c r="M399" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O399" t="s">
         <v>21</v>
@@ -15371,28 +15375,28 @@
     </row>
     <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C400" t="s">
+        <v>649</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G400" t="s">
+        <v>51</v>
+      </c>
+      <c r="H400" t="s">
         <v>1092</v>
       </c>
-      <c r="B400" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C400" t="s">
-        <v>649</v>
-      </c>
-      <c r="D400" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G400" t="s">
-        <v>51</v>
-      </c>
-      <c r="H400" t="s">
+      <c r="I400" t="s">
         <v>1093</v>
       </c>
-      <c r="I400" t="s">
-        <v>1094</v>
-      </c>
       <c r="M400" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O400" t="s">
         <v>21</v>
@@ -15400,28 +15404,28 @@
     </row>
     <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B401" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C401" t="s">
+        <v>649</v>
+      </c>
+      <c r="D401" t="s">
         <v>1041</v>
       </c>
-      <c r="C401" t="s">
-        <v>649</v>
-      </c>
-      <c r="D401" t="s">
-        <v>1042</v>
-      </c>
       <c r="G401" t="s">
         <v>51</v>
       </c>
       <c r="H401" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I401" t="s">
         <v>1046</v>
       </c>
-      <c r="I401" t="s">
-        <v>1047</v>
-      </c>
       <c r="M401" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O401" t="s">
         <v>21</v>
@@ -15429,28 +15433,28 @@
     </row>
     <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C402" t="s">
+        <v>649</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G402" t="s">
+        <v>51</v>
+      </c>
+      <c r="H402" t="s">
         <v>1096</v>
       </c>
-      <c r="B402" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C402" t="s">
-        <v>649</v>
-      </c>
-      <c r="D402" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G402" t="s">
-        <v>51</v>
-      </c>
-      <c r="H402" t="s">
+      <c r="I402" t="s">
         <v>1097</v>
       </c>
-      <c r="I402" t="s">
-        <v>1098</v>
-      </c>
       <c r="M402" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O402" t="s">
         <v>21</v>
@@ -15458,28 +15462,28 @@
     </row>
     <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B403" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C403" t="s">
+        <v>649</v>
+      </c>
+      <c r="D403" t="s">
         <v>1041</v>
       </c>
-      <c r="C403" t="s">
-        <v>649</v>
-      </c>
-      <c r="D403" t="s">
-        <v>1042</v>
-      </c>
       <c r="G403" t="s">
         <v>51</v>
       </c>
       <c r="H403" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I403" t="s">
         <v>1046</v>
       </c>
-      <c r="I403" t="s">
-        <v>1047</v>
-      </c>
       <c r="M403" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O403" t="s">
         <v>21</v>
@@ -15487,28 +15491,28 @@
     </row>
     <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C404" t="s">
+        <v>649</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G404" t="s">
+        <v>51</v>
+      </c>
+      <c r="H404" t="s">
         <v>1100</v>
       </c>
-      <c r="B404" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C404" t="s">
-        <v>649</v>
-      </c>
-      <c r="D404" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G404" t="s">
-        <v>51</v>
-      </c>
-      <c r="H404" t="s">
+      <c r="I404" t="s">
         <v>1101</v>
       </c>
-      <c r="I404" t="s">
-        <v>1102</v>
-      </c>
       <c r="M404" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O404" t="s">
         <v>21</v>
@@ -15516,28 +15520,28 @@
     </row>
     <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B405" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C405" t="s">
+        <v>649</v>
+      </c>
+      <c r="D405" t="s">
         <v>1041</v>
       </c>
-      <c r="C405" t="s">
-        <v>649</v>
-      </c>
-      <c r="D405" t="s">
-        <v>1042</v>
-      </c>
       <c r="G405" t="s">
         <v>51</v>
       </c>
       <c r="H405" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I405" t="s">
         <v>1046</v>
       </c>
-      <c r="I405" t="s">
-        <v>1047</v>
-      </c>
       <c r="M405" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O405" t="s">
         <v>21</v>
@@ -15545,28 +15549,28 @@
     </row>
     <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C406" t="s">
+        <v>649</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G406" t="s">
+        <v>51</v>
+      </c>
+      <c r="H406" t="s">
         <v>1104</v>
       </c>
-      <c r="B406" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C406" t="s">
-        <v>649</v>
-      </c>
-      <c r="D406" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G406" t="s">
-        <v>51</v>
-      </c>
-      <c r="H406" t="s">
+      <c r="I406" t="s">
         <v>1105</v>
       </c>
-      <c r="I406" t="s">
-        <v>1106</v>
-      </c>
       <c r="M406" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O406" t="s">
         <v>21</v>
@@ -15574,28 +15578,28 @@
     </row>
     <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B407" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C407" t="s">
+        <v>649</v>
+      </c>
+      <c r="D407" t="s">
         <v>1041</v>
       </c>
-      <c r="C407" t="s">
-        <v>649</v>
-      </c>
-      <c r="D407" t="s">
-        <v>1042</v>
-      </c>
       <c r="G407" t="s">
         <v>51</v>
       </c>
       <c r="H407" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I407" t="s">
         <v>1046</v>
       </c>
-      <c r="I407" t="s">
-        <v>1047</v>
-      </c>
       <c r="M407" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O407" t="s">
         <v>21</v>
@@ -15603,25 +15607,25 @@
     </row>
     <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B408" t="s">
         <v>1108</v>
       </c>
-      <c r="B408" t="s">
+      <c r="C408" t="s">
+        <v>649</v>
+      </c>
+      <c r="D408" t="s">
         <v>1109</v>
-      </c>
-      <c r="C408" t="s">
-        <v>649</v>
-      </c>
-      <c r="D408" t="s">
-        <v>1110</v>
       </c>
       <c r="G408" t="s">
         <v>247</v>
       </c>
       <c r="H408" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I408" t="s">
         <v>1111</v>
-      </c>
-      <c r="I408" t="s">
-        <v>1112</v>
       </c>
       <c r="O408" t="s">
         <v>40</v>
@@ -15629,25 +15633,25 @@
     </row>
     <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C409" t="s">
+        <v>649</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G409" t="s">
+        <v>51</v>
+      </c>
+      <c r="H409" t="s">
         <v>1113</v>
       </c>
-      <c r="B409" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C409" t="s">
-        <v>649</v>
-      </c>
-      <c r="D409" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G409" t="s">
-        <v>51</v>
-      </c>
-      <c r="H409" t="s">
+      <c r="I409" t="s">
         <v>1114</v>
-      </c>
-      <c r="I409" t="s">
-        <v>1115</v>
       </c>
       <c r="O409" t="s">
         <v>21</v>
@@ -15655,25 +15659,25 @@
     </row>
     <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C410" t="s">
+        <v>649</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G410" t="s">
+        <v>51</v>
+      </c>
+      <c r="H410" t="s">
         <v>1116</v>
       </c>
-      <c r="B410" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C410" t="s">
-        <v>649</v>
-      </c>
-      <c r="D410" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G410" t="s">
-        <v>51</v>
-      </c>
-      <c r="H410" t="s">
+      <c r="I410" t="s">
         <v>1117</v>
-      </c>
-      <c r="I410" t="s">
-        <v>1118</v>
       </c>
       <c r="O410" t="s">
         <v>21</v>
@@ -15681,25 +15685,25 @@
     </row>
     <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C411" t="s">
+        <v>649</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G411" t="s">
+        <v>51</v>
+      </c>
+      <c r="H411" t="s">
         <v>1119</v>
       </c>
-      <c r="B411" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C411" t="s">
-        <v>649</v>
-      </c>
-      <c r="D411" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G411" t="s">
-        <v>51</v>
-      </c>
-      <c r="H411" t="s">
+      <c r="I411" t="s">
         <v>1120</v>
-      </c>
-      <c r="I411" t="s">
-        <v>1121</v>
       </c>
       <c r="O411" t="s">
         <v>21</v>
@@ -15707,25 +15711,25 @@
     </row>
     <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C412" t="s">
+        <v>649</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G412" t="s">
+        <v>51</v>
+      </c>
+      <c r="H412" t="s">
         <v>1122</v>
       </c>
-      <c r="B412" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C412" t="s">
-        <v>649</v>
-      </c>
-      <c r="D412" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G412" t="s">
-        <v>51</v>
-      </c>
-      <c r="H412" t="s">
+      <c r="I412" t="s">
         <v>1123</v>
-      </c>
-      <c r="I412" t="s">
-        <v>1124</v>
       </c>
       <c r="O412" t="s">
         <v>21</v>
@@ -15733,25 +15737,25 @@
     </row>
     <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C413" t="s">
+        <v>649</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G413" t="s">
+        <v>51</v>
+      </c>
+      <c r="H413" t="s">
         <v>1125</v>
       </c>
-      <c r="B413" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C413" t="s">
-        <v>649</v>
-      </c>
-      <c r="D413" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G413" t="s">
-        <v>51</v>
-      </c>
-      <c r="H413" t="s">
+      <c r="I413" t="s">
         <v>1126</v>
-      </c>
-      <c r="I413" t="s">
-        <v>1127</v>
       </c>
       <c r="O413" t="s">
         <v>40</v>
@@ -15759,25 +15763,25 @@
     </row>
     <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B414" t="s">
         <v>1128</v>
       </c>
-      <c r="B414" t="s">
+      <c r="C414" t="s">
+        <v>649</v>
+      </c>
+      <c r="D414" t="s">
         <v>1129</v>
       </c>
-      <c r="C414" t="s">
-        <v>649</v>
-      </c>
-      <c r="D414" t="s">
+      <c r="G414" t="s">
+        <v>51</v>
+      </c>
+      <c r="H414" t="s">
         <v>1130</v>
       </c>
-      <c r="G414" t="s">
-        <v>51</v>
-      </c>
-      <c r="H414" t="s">
+      <c r="I414" t="s">
         <v>1131</v>
-      </c>
-      <c r="I414" t="s">
-        <v>1132</v>
       </c>
       <c r="O414" t="s">
         <v>54</v>
@@ -15785,25 +15789,25 @@
     </row>
     <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C415" t="s">
+        <v>649</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G415" t="s">
+        <v>51</v>
+      </c>
+      <c r="H415" t="s">
         <v>1133</v>
       </c>
-      <c r="B415" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C415" t="s">
-        <v>649</v>
-      </c>
-      <c r="D415" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G415" t="s">
-        <v>51</v>
-      </c>
-      <c r="H415" t="s">
+      <c r="I415" t="s">
         <v>1134</v>
-      </c>
-      <c r="I415" t="s">
-        <v>1135</v>
       </c>
       <c r="O415" t="s">
         <v>54</v>
@@ -15811,25 +15815,25 @@
     </row>
     <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C416" t="s">
+        <v>649</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G416" t="s">
+        <v>51</v>
+      </c>
+      <c r="H416" t="s">
         <v>1136</v>
       </c>
-      <c r="B416" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C416" t="s">
-        <v>649</v>
-      </c>
-      <c r="D416" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G416" t="s">
-        <v>51</v>
-      </c>
-      <c r="H416" t="s">
+      <c r="I416" t="s">
         <v>1137</v>
-      </c>
-      <c r="I416" t="s">
-        <v>1138</v>
       </c>
       <c r="O416" t="s">
         <v>54</v>
@@ -15837,25 +15841,25 @@
     </row>
     <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C417" t="s">
+        <v>649</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G417" t="s">
+        <v>51</v>
+      </c>
+      <c r="H417" t="s">
         <v>1139</v>
       </c>
-      <c r="B417" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C417" t="s">
-        <v>649</v>
-      </c>
-      <c r="D417" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G417" t="s">
-        <v>51</v>
-      </c>
-      <c r="H417" t="s">
+      <c r="I417" t="s">
         <v>1140</v>
-      </c>
-      <c r="I417" t="s">
-        <v>1141</v>
       </c>
       <c r="O417" t="s">
         <v>54</v>
@@ -15863,25 +15867,25 @@
     </row>
     <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C418" t="s">
+        <v>649</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G418" t="s">
+        <v>51</v>
+      </c>
+      <c r="H418" t="s">
         <v>1142</v>
       </c>
-      <c r="B418" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C418" t="s">
-        <v>649</v>
-      </c>
-      <c r="D418" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G418" t="s">
-        <v>51</v>
-      </c>
-      <c r="H418" t="s">
+      <c r="I418" t="s">
         <v>1143</v>
-      </c>
-      <c r="I418" t="s">
-        <v>1144</v>
       </c>
       <c r="O418" t="s">
         <v>54</v>
@@ -15889,25 +15893,25 @@
     </row>
     <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C419" t="s">
+        <v>649</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G419" t="s">
+        <v>51</v>
+      </c>
+      <c r="H419" t="s">
         <v>1145</v>
       </c>
-      <c r="B419" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C419" t="s">
-        <v>649</v>
-      </c>
-      <c r="D419" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G419" t="s">
-        <v>51</v>
-      </c>
-      <c r="H419" t="s">
+      <c r="I419" t="s">
         <v>1146</v>
-      </c>
-      <c r="I419" t="s">
-        <v>1147</v>
       </c>
       <c r="O419" t="s">
         <v>54</v>
@@ -15915,25 +15919,25 @@
     </row>
     <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C420" t="s">
+        <v>649</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G420" t="s">
+        <v>51</v>
+      </c>
+      <c r="H420" t="s">
         <v>1148</v>
       </c>
-      <c r="B420" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C420" t="s">
-        <v>649</v>
-      </c>
-      <c r="D420" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G420" t="s">
-        <v>51</v>
-      </c>
-      <c r="H420" t="s">
+      <c r="I420" t="s">
         <v>1149</v>
-      </c>
-      <c r="I420" t="s">
-        <v>1150</v>
       </c>
       <c r="O420" t="s">
         <v>54</v>
@@ -15941,25 +15945,25 @@
     </row>
     <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C421" t="s">
+        <v>649</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G421" t="s">
+        <v>51</v>
+      </c>
+      <c r="H421" t="s">
         <v>1151</v>
       </c>
-      <c r="B421" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C421" t="s">
-        <v>649</v>
-      </c>
-      <c r="D421" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G421" t="s">
-        <v>51</v>
-      </c>
-      <c r="H421" t="s">
+      <c r="I421" t="s">
         <v>1152</v>
-      </c>
-      <c r="I421" t="s">
-        <v>1153</v>
       </c>
       <c r="O421" t="s">
         <v>54</v>
@@ -15967,25 +15971,25 @@
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C422" t="s">
+        <v>649</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G422" t="s">
+        <v>51</v>
+      </c>
+      <c r="H422" t="s">
         <v>1154</v>
       </c>
-      <c r="B422" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C422" t="s">
-        <v>649</v>
-      </c>
-      <c r="D422" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G422" t="s">
-        <v>51</v>
-      </c>
-      <c r="H422" t="s">
+      <c r="I422" t="s">
         <v>1155</v>
-      </c>
-      <c r="I422" t="s">
-        <v>1156</v>
       </c>
       <c r="O422" t="s">
         <v>54</v>
@@ -15993,25 +15997,25 @@
     </row>
     <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C423" t="s">
+        <v>649</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G423" t="s">
+        <v>51</v>
+      </c>
+      <c r="H423" t="s">
         <v>1157</v>
       </c>
-      <c r="B423" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C423" t="s">
-        <v>649</v>
-      </c>
-      <c r="D423" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G423" t="s">
-        <v>51</v>
-      </c>
-      <c r="H423" t="s">
+      <c r="I423" t="s">
         <v>1158</v>
-      </c>
-      <c r="I423" t="s">
-        <v>1159</v>
       </c>
       <c r="O423" t="s">
         <v>54</v>
@@ -16019,25 +16023,25 @@
     </row>
     <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C424" t="s">
+        <v>649</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G424" t="s">
+        <v>51</v>
+      </c>
+      <c r="H424" t="s">
         <v>1160</v>
       </c>
-      <c r="B424" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C424" t="s">
-        <v>649</v>
-      </c>
-      <c r="D424" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G424" t="s">
-        <v>51</v>
-      </c>
-      <c r="H424" t="s">
+      <c r="I424" t="s">
         <v>1161</v>
-      </c>
-      <c r="I424" t="s">
-        <v>1162</v>
       </c>
       <c r="O424" t="s">
         <v>54</v>
@@ -16045,25 +16049,25 @@
     </row>
     <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C425" t="s">
+        <v>649</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G425" t="s">
+        <v>51</v>
+      </c>
+      <c r="H425" t="s">
         <v>1163</v>
       </c>
-      <c r="B425" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C425" t="s">
-        <v>649</v>
-      </c>
-      <c r="D425" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G425" t="s">
-        <v>51</v>
-      </c>
-      <c r="H425" t="s">
+      <c r="I425" t="s">
         <v>1164</v>
-      </c>
-      <c r="I425" t="s">
-        <v>1165</v>
       </c>
       <c r="O425" t="s">
         <v>54</v>
@@ -16071,25 +16075,25 @@
     </row>
     <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B426" t="s">
         <v>1166</v>
       </c>
-      <c r="B426" t="s">
+      <c r="C426" t="s">
+        <v>649</v>
+      </c>
+      <c r="D426" t="s">
         <v>1167</v>
       </c>
-      <c r="C426" t="s">
-        <v>649</v>
-      </c>
-      <c r="D426" t="s">
+      <c r="G426" t="s">
+        <v>51</v>
+      </c>
+      <c r="H426" t="s">
         <v>1168</v>
       </c>
-      <c r="G426" t="s">
-        <v>51</v>
-      </c>
-      <c r="H426" t="s">
+      <c r="I426" t="s">
         <v>1169</v>
-      </c>
-      <c r="I426" t="s">
-        <v>1170</v>
       </c>
       <c r="O426" t="s">
         <v>40</v>
@@ -16097,25 +16101,25 @@
     </row>
     <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C427" t="s">
+        <v>649</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G427" t="s">
+        <v>51</v>
+      </c>
+      <c r="H427" t="s">
         <v>1171</v>
       </c>
-      <c r="B427" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C427" t="s">
-        <v>649</v>
-      </c>
-      <c r="D427" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G427" t="s">
-        <v>51</v>
-      </c>
-      <c r="H427" t="s">
+      <c r="I427" t="s">
         <v>1172</v>
-      </c>
-      <c r="I427" t="s">
-        <v>1173</v>
       </c>
       <c r="O427" t="s">
         <v>40</v>
@@ -16123,25 +16127,25 @@
     </row>
     <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C428" t="s">
+        <v>649</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G428" t="s">
+        <v>51</v>
+      </c>
+      <c r="H428" t="s">
         <v>1174</v>
       </c>
-      <c r="B428" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C428" t="s">
-        <v>649</v>
-      </c>
-      <c r="D428" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G428" t="s">
-        <v>51</v>
-      </c>
-      <c r="H428" t="s">
+      <c r="I428" t="s">
         <v>1175</v>
-      </c>
-      <c r="I428" t="s">
-        <v>1176</v>
       </c>
       <c r="O428" t="s">
         <v>40</v>
@@ -16149,25 +16153,25 @@
     </row>
     <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C429" t="s">
+        <v>649</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G429" t="s">
+        <v>51</v>
+      </c>
+      <c r="H429" t="s">
         <v>1177</v>
       </c>
-      <c r="B429" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C429" t="s">
-        <v>649</v>
-      </c>
-      <c r="D429" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G429" t="s">
-        <v>51</v>
-      </c>
-      <c r="H429" t="s">
+      <c r="I429" t="s">
         <v>1178</v>
-      </c>
-      <c r="I429" t="s">
-        <v>1179</v>
       </c>
       <c r="O429" t="s">
         <v>40</v>
@@ -16175,25 +16179,25 @@
     </row>
     <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C430" t="s">
+        <v>649</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G430" t="s">
+        <v>51</v>
+      </c>
+      <c r="H430" t="s">
         <v>1180</v>
       </c>
-      <c r="B430" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C430" t="s">
-        <v>649</v>
-      </c>
-      <c r="D430" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G430" t="s">
-        <v>51</v>
-      </c>
-      <c r="H430" t="s">
+      <c r="I430" t="s">
         <v>1181</v>
-      </c>
-      <c r="I430" t="s">
-        <v>1182</v>
       </c>
       <c r="O430" t="s">
         <v>40</v>
@@ -16201,25 +16205,25 @@
     </row>
     <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C431" t="s">
+        <v>649</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G431" t="s">
+        <v>51</v>
+      </c>
+      <c r="H431" t="s">
         <v>1183</v>
       </c>
-      <c r="B431" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C431" t="s">
-        <v>649</v>
-      </c>
-      <c r="D431" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G431" t="s">
-        <v>51</v>
-      </c>
-      <c r="H431" t="s">
+      <c r="I431" t="s">
         <v>1184</v>
-      </c>
-      <c r="I431" t="s">
-        <v>1185</v>
       </c>
       <c r="O431" t="s">
         <v>40</v>
@@ -16227,22 +16231,22 @@
     </row>
     <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C432" t="s">
+        <v>649</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G432" t="s">
+        <v>51</v>
+      </c>
+      <c r="H432" t="s">
         <v>1186</v>
-      </c>
-      <c r="B432" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C432" t="s">
-        <v>649</v>
-      </c>
-      <c r="D432" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G432" t="s">
-        <v>51</v>
-      </c>
-      <c r="H432" t="s">
-        <v>1187</v>
       </c>
       <c r="K432">
         <v>1</v>
@@ -16253,25 +16257,25 @@
     </row>
     <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C433" t="s">
+        <v>649</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G433" t="s">
+        <v>51</v>
+      </c>
+      <c r="H433" t="s">
         <v>1188</v>
       </c>
-      <c r="B433" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C433" t="s">
-        <v>649</v>
-      </c>
-      <c r="D433" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G433" t="s">
-        <v>51</v>
-      </c>
-      <c r="H433" t="s">
+      <c r="I433" t="s">
         <v>1189</v>
-      </c>
-      <c r="I433" t="s">
-        <v>1190</v>
       </c>
       <c r="O433" t="s">
         <v>40</v>
@@ -16279,25 +16283,25 @@
     </row>
     <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C434" t="s">
+        <v>649</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G434" t="s">
+        <v>51</v>
+      </c>
+      <c r="H434" t="s">
         <v>1191</v>
       </c>
-      <c r="B434" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C434" t="s">
-        <v>649</v>
-      </c>
-      <c r="D434" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G434" t="s">
-        <v>51</v>
-      </c>
-      <c r="H434" t="s">
+      <c r="I434" t="s">
         <v>1192</v>
-      </c>
-      <c r="I434" t="s">
-        <v>1193</v>
       </c>
       <c r="O434" t="s">
         <v>40</v>
@@ -16305,25 +16309,25 @@
     </row>
     <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C435" t="s">
+        <v>649</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G435" t="s">
+        <v>51</v>
+      </c>
+      <c r="H435" t="s">
         <v>1194</v>
       </c>
-      <c r="B435" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C435" t="s">
-        <v>649</v>
-      </c>
-      <c r="D435" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G435" t="s">
-        <v>51</v>
-      </c>
-      <c r="H435" t="s">
+      <c r="I435" t="s">
         <v>1195</v>
-      </c>
-      <c r="I435" t="s">
-        <v>1196</v>
       </c>
       <c r="O435" t="s">
         <v>40</v>
@@ -16331,25 +16335,25 @@
     </row>
     <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B436" t="s">
         <v>1197</v>
       </c>
-      <c r="B436" t="s">
+      <c r="C436" t="s">
+        <v>649</v>
+      </c>
+      <c r="D436" t="s">
         <v>1198</v>
-      </c>
-      <c r="C436" t="s">
-        <v>649</v>
-      </c>
-      <c r="D436" t="s">
-        <v>1199</v>
       </c>
       <c r="G436" t="s">
         <v>247</v>
       </c>
       <c r="H436" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I436" t="s">
         <v>1200</v>
-      </c>
-      <c r="I436" t="s">
-        <v>1201</v>
       </c>
       <c r="O436" t="s">
         <v>40</v>
@@ -16357,25 +16361,25 @@
     </row>
     <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C437" t="s">
+        <v>649</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G437" t="s">
+        <v>19</v>
+      </c>
+      <c r="H437" t="s">
         <v>1202</v>
       </c>
-      <c r="B437" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C437" t="s">
-        <v>649</v>
-      </c>
-      <c r="D437" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G437" t="s">
-        <v>19</v>
-      </c>
-      <c r="H437" t="s">
+      <c r="I437" t="s">
         <v>1203</v>
-      </c>
-      <c r="I437" t="s">
-        <v>1204</v>
       </c>
       <c r="O437" t="s">
         <v>40</v>
@@ -16383,25 +16387,25 @@
     </row>
     <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B438" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C438" t="s">
+        <v>649</v>
+      </c>
+      <c r="D438" t="s">
         <v>1198</v>
-      </c>
-      <c r="C438" t="s">
-        <v>649</v>
-      </c>
-      <c r="D438" t="s">
-        <v>1199</v>
       </c>
       <c r="G438" t="s">
         <v>247</v>
       </c>
       <c r="H438" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I438" t="s">
         <v>1206</v>
-      </c>
-      <c r="I438" t="s">
-        <v>1207</v>
       </c>
       <c r="O438" t="s">
         <v>40</v>
@@ -16409,25 +16413,25 @@
     </row>
     <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B439" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C439" t="s">
+        <v>649</v>
+      </c>
+      <c r="D439" t="s">
         <v>1198</v>
-      </c>
-      <c r="C439" t="s">
-        <v>649</v>
-      </c>
-      <c r="D439" t="s">
-        <v>1199</v>
       </c>
       <c r="G439" t="s">
         <v>247</v>
       </c>
       <c r="H439" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I439" t="s">
         <v>1209</v>
-      </c>
-      <c r="I439" t="s">
-        <v>1210</v>
       </c>
       <c r="O439" t="s">
         <v>40</v>
@@ -16435,25 +16439,25 @@
     </row>
     <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B440" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C440" t="s">
+        <v>649</v>
+      </c>
+      <c r="D440" t="s">
         <v>1198</v>
-      </c>
-      <c r="C440" t="s">
-        <v>649</v>
-      </c>
-      <c r="D440" t="s">
-        <v>1199</v>
       </c>
       <c r="G440" t="s">
         <v>247</v>
       </c>
       <c r="H440" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I440" t="s">
         <v>1212</v>
-      </c>
-      <c r="I440" t="s">
-        <v>1213</v>
       </c>
       <c r="O440" t="s">
         <v>40</v>
@@ -16461,25 +16465,25 @@
     </row>
     <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B441" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C441" t="s">
+        <v>649</v>
+      </c>
+      <c r="D441" t="s">
         <v>1198</v>
-      </c>
-      <c r="C441" t="s">
-        <v>649</v>
-      </c>
-      <c r="D441" t="s">
-        <v>1199</v>
       </c>
       <c r="G441" t="s">
         <v>247</v>
       </c>
       <c r="H441" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I441" t="s">
         <v>1215</v>
-      </c>
-      <c r="I441" t="s">
-        <v>1216</v>
       </c>
       <c r="O441" t="s">
         <v>40</v>
@@ -16487,25 +16491,25 @@
     </row>
     <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B442" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C442" t="s">
+        <v>649</v>
+      </c>
+      <c r="D442" t="s">
         <v>1198</v>
-      </c>
-      <c r="C442" t="s">
-        <v>649</v>
-      </c>
-      <c r="D442" t="s">
-        <v>1199</v>
       </c>
       <c r="G442" t="s">
         <v>247</v>
       </c>
       <c r="H442" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I442" t="s">
         <v>1218</v>
-      </c>
-      <c r="I442" t="s">
-        <v>1219</v>
       </c>
       <c r="O442" t="s">
         <v>40</v>
@@ -16513,25 +16517,25 @@
     </row>
     <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B443" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C443" t="s">
+        <v>649</v>
+      </c>
+      <c r="D443" t="s">
         <v>1198</v>
-      </c>
-      <c r="C443" t="s">
-        <v>649</v>
-      </c>
-      <c r="D443" t="s">
-        <v>1199</v>
       </c>
       <c r="G443" t="s">
         <v>247</v>
       </c>
       <c r="H443" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I443" t="s">
         <v>1221</v>
-      </c>
-      <c r="I443" t="s">
-        <v>1222</v>
       </c>
       <c r="O443" t="s">
         <v>40</v>
@@ -16539,25 +16543,25 @@
     </row>
     <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B444" t="s">
         <v>1223</v>
       </c>
-      <c r="B444" t="s">
+      <c r="C444" t="s">
+        <v>649</v>
+      </c>
+      <c r="D444" t="s">
         <v>1224</v>
       </c>
-      <c r="C444" t="s">
-        <v>649</v>
-      </c>
-      <c r="D444" t="s">
+      <c r="G444" t="s">
+        <v>51</v>
+      </c>
+      <c r="H444" t="s">
         <v>1225</v>
       </c>
-      <c r="G444" t="s">
-        <v>51</v>
-      </c>
-      <c r="H444" t="s">
+      <c r="I444" t="s">
         <v>1226</v>
-      </c>
-      <c r="I444" t="s">
-        <v>1227</v>
       </c>
       <c r="O444" t="s">
         <v>40</v>
@@ -16565,25 +16569,25 @@
     </row>
     <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C445" t="s">
+        <v>649</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G445" t="s">
+        <v>51</v>
+      </c>
+      <c r="H445" t="s">
         <v>1228</v>
       </c>
-      <c r="B445" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C445" t="s">
-        <v>649</v>
-      </c>
-      <c r="D445" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G445" t="s">
-        <v>51</v>
-      </c>
-      <c r="H445" t="s">
-        <v>1229</v>
-      </c>
       <c r="I445" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="O445" t="s">
         <v>40</v>
@@ -16591,25 +16595,25 @@
     </row>
     <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C446" t="s">
+        <v>649</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G446" t="s">
+        <v>51</v>
+      </c>
+      <c r="H446" t="s">
         <v>1230</v>
       </c>
-      <c r="B446" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C446" t="s">
-        <v>649</v>
-      </c>
-      <c r="D446" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G446" t="s">
-        <v>51</v>
-      </c>
-      <c r="H446" t="s">
-        <v>1231</v>
-      </c>
       <c r="I446" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="O446" t="s">
         <v>40</v>
@@ -16617,25 +16621,25 @@
     </row>
     <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C447" t="s">
+        <v>649</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G447" t="s">
+        <v>51</v>
+      </c>
+      <c r="H447" t="s">
         <v>1232</v>
       </c>
-      <c r="B447" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C447" t="s">
-        <v>649</v>
-      </c>
-      <c r="D447" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G447" t="s">
-        <v>51</v>
-      </c>
-      <c r="H447" t="s">
-        <v>1233</v>
-      </c>
       <c r="I447" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="O447" t="s">
         <v>40</v>
@@ -16643,25 +16647,25 @@
     </row>
     <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C448" t="s">
+        <v>649</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G448" t="s">
+        <v>51</v>
+      </c>
+      <c r="H448" t="s">
         <v>1234</v>
       </c>
-      <c r="B448" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C448" t="s">
-        <v>649</v>
-      </c>
-      <c r="D448" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G448" t="s">
-        <v>51</v>
-      </c>
-      <c r="H448" t="s">
-        <v>1235</v>
-      </c>
       <c r="I448" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="O448" t="s">
         <v>40</v>
@@ -16669,25 +16673,25 @@
     </row>
     <row r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C449" t="s">
+        <v>649</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G449" t="s">
+        <v>51</v>
+      </c>
+      <c r="H449" t="s">
         <v>1236</v>
       </c>
-      <c r="B449" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C449" t="s">
-        <v>649</v>
-      </c>
-      <c r="D449" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G449" t="s">
-        <v>51</v>
-      </c>
-      <c r="H449" t="s">
-        <v>1237</v>
-      </c>
       <c r="I449" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="O449" t="s">
         <v>40</v>
@@ -16695,25 +16699,25 @@
     </row>
     <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C450" t="s">
+        <v>649</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G450" t="s">
+        <v>51</v>
+      </c>
+      <c r="H450" t="s">
         <v>1238</v>
       </c>
-      <c r="B450" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C450" t="s">
-        <v>649</v>
-      </c>
-      <c r="D450" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G450" t="s">
-        <v>51</v>
-      </c>
-      <c r="H450" t="s">
-        <v>1239</v>
-      </c>
       <c r="I450" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="O450" t="s">
         <v>40</v>
@@ -16721,25 +16725,25 @@
     </row>
     <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C451" t="s">
+        <v>649</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G451" t="s">
+        <v>51</v>
+      </c>
+      <c r="H451" t="s">
         <v>1240</v>
       </c>
-      <c r="B451" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C451" t="s">
-        <v>649</v>
-      </c>
-      <c r="D451" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G451" t="s">
-        <v>51</v>
-      </c>
-      <c r="H451" t="s">
-        <v>1241</v>
-      </c>
       <c r="I451" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="O451" t="s">
         <v>40</v>
@@ -16747,25 +16751,25 @@
     </row>
     <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C452" t="s">
+        <v>649</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G452" t="s">
+        <v>51</v>
+      </c>
+      <c r="H452" t="s">
         <v>1242</v>
       </c>
-      <c r="B452" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C452" t="s">
-        <v>649</v>
-      </c>
-      <c r="D452" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G452" t="s">
-        <v>51</v>
-      </c>
-      <c r="H452" t="s">
-        <v>1243</v>
-      </c>
       <c r="I452" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="O452" t="s">
         <v>40</v>
@@ -16773,25 +16777,25 @@
     </row>
     <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C453" t="s">
+        <v>649</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G453" t="s">
+        <v>51</v>
+      </c>
+      <c r="H453" t="s">
         <v>1244</v>
       </c>
-      <c r="B453" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C453" t="s">
-        <v>649</v>
-      </c>
-      <c r="D453" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G453" t="s">
-        <v>51</v>
-      </c>
-      <c r="H453" t="s">
-        <v>1245</v>
-      </c>
       <c r="I453" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="O453" t="s">
         <v>40</v>
@@ -16799,25 +16803,25 @@
     </row>
     <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C454" t="s">
+        <v>649</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G454" t="s">
+        <v>51</v>
+      </c>
+      <c r="H454" t="s">
         <v>1246</v>
       </c>
-      <c r="B454" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C454" t="s">
-        <v>649</v>
-      </c>
-      <c r="D454" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G454" t="s">
-        <v>51</v>
-      </c>
-      <c r="H454" t="s">
-        <v>1247</v>
-      </c>
       <c r="I454" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="O454" t="s">
         <v>40</v>
@@ -16825,25 +16829,25 @@
     </row>
     <row r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C455" t="s">
+        <v>649</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G455" t="s">
+        <v>51</v>
+      </c>
+      <c r="H455" t="s">
         <v>1248</v>
       </c>
-      <c r="B455" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C455" t="s">
-        <v>649</v>
-      </c>
-      <c r="D455" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G455" t="s">
-        <v>51</v>
-      </c>
-      <c r="H455" t="s">
-        <v>1249</v>
-      </c>
       <c r="I455" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="O455" t="s">
         <v>40</v>
@@ -16851,25 +16855,25 @@
     </row>
     <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C456" t="s">
+        <v>649</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G456" t="s">
+        <v>51</v>
+      </c>
+      <c r="H456" t="s">
         <v>1250</v>
       </c>
-      <c r="B456" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C456" t="s">
-        <v>649</v>
-      </c>
-      <c r="D456" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G456" t="s">
-        <v>51</v>
-      </c>
-      <c r="H456" t="s">
-        <v>1251</v>
-      </c>
       <c r="I456" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="O456" t="s">
         <v>40</v>
@@ -16877,25 +16881,25 @@
     </row>
     <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C457" t="s">
+        <v>649</v>
+      </c>
+      <c r="D457" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G457" t="s">
+        <v>51</v>
+      </c>
+      <c r="H457" t="s">
         <v>1252</v>
       </c>
-      <c r="B457" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C457" t="s">
-        <v>649</v>
-      </c>
-      <c r="D457" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G457" t="s">
-        <v>51</v>
-      </c>
-      <c r="H457" t="s">
-        <v>1253</v>
-      </c>
       <c r="I457" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="O457" t="s">
         <v>40</v>
@@ -16903,25 +16907,25 @@
     </row>
     <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C458" t="s">
+        <v>649</v>
+      </c>
+      <c r="D458" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G458" t="s">
+        <v>51</v>
+      </c>
+      <c r="H458" t="s">
         <v>1254</v>
       </c>
-      <c r="B458" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C458" t="s">
-        <v>649</v>
-      </c>
-      <c r="D458" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G458" t="s">
-        <v>51</v>
-      </c>
-      <c r="H458" t="s">
-        <v>1255</v>
-      </c>
       <c r="I458" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="O458" t="s">
         <v>40</v>
@@ -16929,25 +16933,25 @@
     </row>
     <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C459" t="s">
+        <v>649</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G459" t="s">
+        <v>51</v>
+      </c>
+      <c r="H459" t="s">
         <v>1256</v>
       </c>
-      <c r="B459" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C459" t="s">
-        <v>649</v>
-      </c>
-      <c r="D459" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G459" t="s">
-        <v>51</v>
-      </c>
-      <c r="H459" t="s">
-        <v>1257</v>
-      </c>
       <c r="I459" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="O459" t="s">
         <v>40</v>
@@ -16955,25 +16959,25 @@
     </row>
     <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C460" t="s">
+        <v>649</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G460" t="s">
+        <v>51</v>
+      </c>
+      <c r="H460" t="s">
         <v>1258</v>
       </c>
-      <c r="B460" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C460" t="s">
-        <v>649</v>
-      </c>
-      <c r="D460" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G460" t="s">
-        <v>51</v>
-      </c>
-      <c r="H460" t="s">
-        <v>1259</v>
-      </c>
       <c r="I460" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="O460" t="s">
         <v>40</v>
@@ -16981,22 +16985,22 @@
     </row>
     <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B461" t="s">
         <v>1260</v>
       </c>
-      <c r="B461" t="s">
+      <c r="C461" t="s">
+        <v>649</v>
+      </c>
+      <c r="D461" t="s">
         <v>1261</v>
       </c>
-      <c r="C461" t="s">
-        <v>649</v>
-      </c>
-      <c r="D461" t="s">
-        <v>1262</v>
-      </c>
       <c r="G461" t="s">
         <v>51</v>
       </c>
       <c r="I461" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="O461" t="s">
         <v>21</v>
@@ -17004,25 +17008,25 @@
     </row>
     <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C462" t="s">
+        <v>649</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G462" t="s">
+        <v>51</v>
+      </c>
+      <c r="H462" t="s">
         <v>1263</v>
       </c>
-      <c r="B462" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C462" t="s">
-        <v>649</v>
-      </c>
-      <c r="D462" t="s">
-        <v>1262</v>
-      </c>
-      <c r="G462" t="s">
-        <v>51</v>
-      </c>
-      <c r="H462" t="s">
+      <c r="I462" t="s">
         <v>1264</v>
-      </c>
-      <c r="I462" t="s">
-        <v>1265</v>
       </c>
       <c r="O462" t="s">
         <v>21</v>
@@ -17030,25 +17034,25 @@
     </row>
     <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C463" t="s">
+        <v>649</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G463" t="s">
+        <v>51</v>
+      </c>
+      <c r="H463" t="s">
         <v>1266</v>
       </c>
-      <c r="B463" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C463" t="s">
-        <v>649</v>
-      </c>
-      <c r="D463" t="s">
-        <v>1262</v>
-      </c>
-      <c r="G463" t="s">
-        <v>51</v>
-      </c>
-      <c r="H463" t="s">
+      <c r="I463" t="s">
         <v>1267</v>
-      </c>
-      <c r="I463" t="s">
-        <v>1268</v>
       </c>
       <c r="O463" t="s">
         <v>21</v>
@@ -17056,25 +17060,25 @@
     </row>
     <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C464" t="s">
+        <v>649</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G464" t="s">
+        <v>51</v>
+      </c>
+      <c r="H464" t="s">
         <v>1269</v>
       </c>
-      <c r="B464" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C464" t="s">
-        <v>649</v>
-      </c>
-      <c r="D464" t="s">
-        <v>1262</v>
-      </c>
-      <c r="G464" t="s">
-        <v>51</v>
-      </c>
-      <c r="H464" t="s">
+      <c r="I464" t="s">
         <v>1270</v>
-      </c>
-      <c r="I464" t="s">
-        <v>1271</v>
       </c>
       <c r="O464" t="s">
         <v>21</v>
@@ -17082,25 +17086,25 @@
     </row>
     <row r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C465" t="s">
+        <v>649</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G465" t="s">
+        <v>51</v>
+      </c>
+      <c r="H465" t="s">
         <v>1272</v>
       </c>
-      <c r="B465" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C465" t="s">
-        <v>649</v>
-      </c>
-      <c r="D465" t="s">
-        <v>1262</v>
-      </c>
-      <c r="G465" t="s">
-        <v>51</v>
-      </c>
-      <c r="H465" t="s">
+      <c r="I465" t="s">
         <v>1273</v>
-      </c>
-      <c r="I465" t="s">
-        <v>1274</v>
       </c>
       <c r="O465" t="s">
         <v>21</v>
@@ -17108,25 +17112,25 @@
     </row>
     <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C466" t="s">
+        <v>649</v>
+      </c>
+      <c r="D466" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G466" t="s">
+        <v>51</v>
+      </c>
+      <c r="H466" t="s">
         <v>1275</v>
       </c>
-      <c r="B466" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C466" t="s">
-        <v>649</v>
-      </c>
-      <c r="D466" t="s">
-        <v>1262</v>
-      </c>
-      <c r="G466" t="s">
-        <v>51</v>
-      </c>
-      <c r="H466" t="s">
+      <c r="I466" t="s">
         <v>1276</v>
-      </c>
-      <c r="I466" t="s">
-        <v>1277</v>
       </c>
       <c r="O466" t="s">
         <v>21</v>
@@ -17134,25 +17138,25 @@
     </row>
     <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B467" t="s">
         <v>1278</v>
       </c>
-      <c r="B467" t="s">
+      <c r="C467" t="s">
         <v>1279</v>
       </c>
-      <c r="C467" t="s">
+      <c r="D467" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G467" t="s">
+        <v>19</v>
+      </c>
+      <c r="H467" t="s">
         <v>1280</v>
       </c>
-      <c r="D467" t="s">
+      <c r="I467" t="s">
         <v>1280</v>
-      </c>
-      <c r="G467" t="s">
-        <v>19</v>
-      </c>
-      <c r="H467" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I467" t="s">
-        <v>1281</v>
       </c>
       <c r="O467" t="s">
         <v>64</v>
@@ -17160,25 +17164,25 @@
     </row>
     <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G468" t="s">
+        <v>19</v>
+      </c>
+      <c r="H468" t="s">
         <v>1282</v>
       </c>
-      <c r="B468" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C468" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D468" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G468" t="s">
-        <v>19</v>
-      </c>
-      <c r="H468" t="s">
-        <v>1283</v>
-      </c>
       <c r="I468" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="O468" t="s">
         <v>64</v>
@@ -17186,25 +17190,25 @@
     </row>
     <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G469" t="s">
+        <v>19</v>
+      </c>
+      <c r="H469" t="s">
         <v>1284</v>
       </c>
-      <c r="B469" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C469" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D469" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G469" t="s">
-        <v>19</v>
-      </c>
-      <c r="H469" t="s">
-        <v>1285</v>
-      </c>
       <c r="I469" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="O469" t="s">
         <v>64</v>
@@ -17212,25 +17216,25 @@
     </row>
     <row r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G470" t="s">
+        <v>19</v>
+      </c>
+      <c r="H470" t="s">
         <v>1286</v>
       </c>
-      <c r="B470" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C470" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D470" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G470" t="s">
-        <v>19</v>
-      </c>
-      <c r="H470" t="s">
-        <v>1287</v>
-      </c>
       <c r="I470" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="O470" t="s">
         <v>64</v>
@@ -17238,25 +17242,25 @@
     </row>
     <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G471" t="s">
+        <v>19</v>
+      </c>
+      <c r="H471" t="s">
         <v>1288</v>
       </c>
-      <c r="B471" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C471" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D471" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G471" t="s">
-        <v>19</v>
-      </c>
-      <c r="H471" t="s">
-        <v>1289</v>
-      </c>
       <c r="I471" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="O471" t="s">
         <v>64</v>
@@ -17264,25 +17268,25 @@
     </row>
     <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G472" t="s">
+        <v>19</v>
+      </c>
+      <c r="H472" t="s">
         <v>1290</v>
       </c>
-      <c r="B472" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C472" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D472" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G472" t="s">
-        <v>19</v>
-      </c>
-      <c r="H472" t="s">
-        <v>1291</v>
-      </c>
       <c r="I472" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="O472" t="s">
         <v>64</v>
@@ -17290,25 +17294,25 @@
     </row>
     <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G473" t="s">
+        <v>19</v>
+      </c>
+      <c r="H473" t="s">
         <v>1292</v>
       </c>
-      <c r="B473" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C473" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D473" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G473" t="s">
-        <v>19</v>
-      </c>
-      <c r="H473" t="s">
-        <v>1293</v>
-      </c>
       <c r="I473" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="O473" t="s">
         <v>64</v>
@@ -17316,25 +17320,25 @@
     </row>
     <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G474" t="s">
+        <v>19</v>
+      </c>
+      <c r="H474" t="s">
         <v>1294</v>
       </c>
-      <c r="B474" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C474" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D474" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G474" t="s">
-        <v>19</v>
-      </c>
-      <c r="H474" t="s">
-        <v>1295</v>
-      </c>
       <c r="I474" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="O474" t="s">
         <v>64</v>
@@ -17342,25 +17346,25 @@
     </row>
     <row r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G475" t="s">
+        <v>19</v>
+      </c>
+      <c r="H475" t="s">
         <v>1296</v>
       </c>
-      <c r="B475" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C475" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D475" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G475" t="s">
-        <v>19</v>
-      </c>
-      <c r="H475" t="s">
-        <v>1297</v>
-      </c>
       <c r="I475" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="O475" t="s">
         <v>64</v>
@@ -17368,25 +17372,25 @@
     </row>
     <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G476" t="s">
+        <v>19</v>
+      </c>
+      <c r="H476" t="s">
         <v>1298</v>
       </c>
-      <c r="B476" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C476" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D476" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G476" t="s">
-        <v>19</v>
-      </c>
-      <c r="H476" t="s">
-        <v>1299</v>
-      </c>
       <c r="I476" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="O476" t="s">
         <v>64</v>
@@ -17394,25 +17398,25 @@
     </row>
     <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G477" t="s">
+        <v>19</v>
+      </c>
+      <c r="H477" t="s">
         <v>1300</v>
       </c>
-      <c r="B477" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C477" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D477" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G477" t="s">
-        <v>19</v>
-      </c>
-      <c r="H477" t="s">
-        <v>1301</v>
-      </c>
       <c r="I477" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="O477" t="s">
         <v>64</v>
@@ -17420,25 +17424,25 @@
     </row>
     <row r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G478" t="s">
+        <v>19</v>
+      </c>
+      <c r="H478" t="s">
         <v>1302</v>
       </c>
-      <c r="B478" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C478" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D478" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G478" t="s">
-        <v>19</v>
-      </c>
-      <c r="H478" t="s">
-        <v>1303</v>
-      </c>
       <c r="I478" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="O478" t="s">
         <v>64</v>
@@ -17446,25 +17450,25 @@
     </row>
     <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G479" t="s">
+        <v>19</v>
+      </c>
+      <c r="H479" t="s">
         <v>1304</v>
       </c>
-      <c r="B479" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C479" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D479" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G479" t="s">
-        <v>19</v>
-      </c>
-      <c r="H479" t="s">
-        <v>1305</v>
-      </c>
       <c r="I479" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="O479" t="s">
         <v>64</v>
@@ -17472,25 +17476,25 @@
     </row>
     <row r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G480" t="s">
+        <v>19</v>
+      </c>
+      <c r="H480" t="s">
         <v>1306</v>
       </c>
-      <c r="B480" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C480" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D480" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G480" t="s">
-        <v>19</v>
-      </c>
-      <c r="H480" t="s">
-        <v>1307</v>
-      </c>
       <c r="I480" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="O480" t="s">
         <v>64</v>
@@ -17498,25 +17502,25 @@
     </row>
     <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G481" t="s">
+        <v>19</v>
+      </c>
+      <c r="H481" t="s">
         <v>1308</v>
       </c>
-      <c r="B481" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C481" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D481" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G481" t="s">
-        <v>19</v>
-      </c>
-      <c r="H481" t="s">
-        <v>1309</v>
-      </c>
       <c r="I481" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="O481" t="s">
         <v>64</v>
@@ -17524,25 +17528,25 @@
     </row>
     <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G482" t="s">
+        <v>19</v>
+      </c>
+      <c r="H482" t="s">
         <v>1310</v>
       </c>
-      <c r="B482" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C482" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D482" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G482" t="s">
-        <v>19</v>
-      </c>
-      <c r="H482" t="s">
-        <v>1311</v>
-      </c>
       <c r="I482" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="O482" t="s">
         <v>64</v>
@@ -17550,25 +17554,25 @@
     </row>
     <row r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G483" t="s">
+        <v>19</v>
+      </c>
+      <c r="H483" t="s">
         <v>1312</v>
       </c>
-      <c r="B483" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C483" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D483" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G483" t="s">
-        <v>19</v>
-      </c>
-      <c r="H483" t="s">
-        <v>1313</v>
-      </c>
       <c r="I483" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="O483" t="s">
         <v>64</v>
@@ -17576,25 +17580,25 @@
     </row>
     <row r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G484" t="s">
+        <v>19</v>
+      </c>
+      <c r="H484" t="s">
         <v>1314</v>
       </c>
-      <c r="B484" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C484" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D484" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G484" t="s">
-        <v>19</v>
-      </c>
-      <c r="H484" t="s">
-        <v>1315</v>
-      </c>
       <c r="I484" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="O484" t="s">
         <v>64</v>
@@ -17602,25 +17606,25 @@
     </row>
     <row r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G485" t="s">
+        <v>19</v>
+      </c>
+      <c r="H485" t="s">
         <v>1316</v>
       </c>
-      <c r="B485" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C485" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D485" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G485" t="s">
-        <v>19</v>
-      </c>
-      <c r="H485" t="s">
-        <v>1317</v>
-      </c>
       <c r="I485" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="O485" t="s">
         <v>64</v>
@@ -17628,25 +17632,25 @@
     </row>
     <row r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G486" t="s">
+        <v>19</v>
+      </c>
+      <c r="H486" t="s">
         <v>1318</v>
       </c>
-      <c r="B486" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C486" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D486" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G486" t="s">
-        <v>19</v>
-      </c>
-      <c r="H486" t="s">
-        <v>1319</v>
-      </c>
       <c r="I486" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="O486" t="s">
         <v>64</v>
@@ -17654,25 +17658,25 @@
     </row>
     <row r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G487" t="s">
+        <v>19</v>
+      </c>
+      <c r="H487" t="s">
         <v>1320</v>
       </c>
-      <c r="B487" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C487" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D487" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G487" t="s">
-        <v>19</v>
-      </c>
-      <c r="H487" t="s">
-        <v>1321</v>
-      </c>
       <c r="I487" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="O487" t="s">
         <v>64</v>
@@ -17680,25 +17684,25 @@
     </row>
     <row r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G488" t="s">
+        <v>19</v>
+      </c>
+      <c r="H488" t="s">
         <v>1322</v>
       </c>
-      <c r="B488" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C488" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D488" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G488" t="s">
-        <v>19</v>
-      </c>
-      <c r="H488" t="s">
-        <v>1323</v>
-      </c>
       <c r="I488" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="O488" t="s">
         <v>64</v>
@@ -17706,25 +17710,25 @@
     </row>
     <row r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G489" t="s">
+        <v>19</v>
+      </c>
+      <c r="H489" t="s">
         <v>1324</v>
       </c>
-      <c r="B489" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C489" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D489" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G489" t="s">
-        <v>19</v>
-      </c>
-      <c r="H489" t="s">
-        <v>1325</v>
-      </c>
       <c r="I489" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="O489" t="s">
         <v>64</v>
@@ -17732,25 +17736,25 @@
     </row>
     <row r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G490" t="s">
+        <v>19</v>
+      </c>
+      <c r="H490" t="s">
         <v>1326</v>
       </c>
-      <c r="B490" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C490" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D490" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G490" t="s">
-        <v>19</v>
-      </c>
-      <c r="H490" t="s">
-        <v>1327</v>
-      </c>
       <c r="I490" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="O490" t="s">
         <v>64</v>
@@ -17758,25 +17762,25 @@
     </row>
     <row r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G491" t="s">
+        <v>19</v>
+      </c>
+      <c r="H491" t="s">
         <v>1328</v>
       </c>
-      <c r="B491" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C491" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D491" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G491" t="s">
-        <v>19</v>
-      </c>
-      <c r="H491" t="s">
-        <v>1329</v>
-      </c>
       <c r="I491" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="O491" t="s">
         <v>64</v>
@@ -17784,25 +17788,25 @@
     </row>
     <row r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G492" t="s">
+        <v>19</v>
+      </c>
+      <c r="H492" t="s">
         <v>1330</v>
       </c>
-      <c r="B492" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C492" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D492" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G492" t="s">
-        <v>19</v>
-      </c>
-      <c r="H492" t="s">
-        <v>1331</v>
-      </c>
       <c r="I492" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="O492" t="s">
         <v>64</v>
@@ -17810,25 +17814,25 @@
     </row>
     <row r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G493" t="s">
+        <v>19</v>
+      </c>
+      <c r="H493" t="s">
         <v>1332</v>
       </c>
-      <c r="B493" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C493" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D493" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G493" t="s">
-        <v>19</v>
-      </c>
-      <c r="H493" t="s">
-        <v>1333</v>
-      </c>
       <c r="I493" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="O493" t="s">
         <v>64</v>
@@ -17836,25 +17840,25 @@
     </row>
     <row r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G494" t="s">
+        <v>19</v>
+      </c>
+      <c r="H494" t="s">
         <v>1334</v>
       </c>
-      <c r="B494" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C494" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D494" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G494" t="s">
-        <v>19</v>
-      </c>
-      <c r="H494" t="s">
-        <v>1335</v>
-      </c>
       <c r="I494" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="O494" t="s">
         <v>64</v>
@@ -17862,25 +17866,25 @@
     </row>
     <row r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D495" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G495" t="s">
+        <v>19</v>
+      </c>
+      <c r="H495" t="s">
         <v>1336</v>
       </c>
-      <c r="B495" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C495" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D495" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G495" t="s">
-        <v>19</v>
-      </c>
-      <c r="H495" t="s">
-        <v>1337</v>
-      </c>
       <c r="I495" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="O495" t="s">
         <v>64</v>
@@ -17888,25 +17892,25 @@
     </row>
     <row r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G496" t="s">
+        <v>19</v>
+      </c>
+      <c r="H496" t="s">
         <v>1338</v>
       </c>
-      <c r="B496" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C496" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D496" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G496" t="s">
-        <v>19</v>
-      </c>
-      <c r="H496" t="s">
-        <v>1339</v>
-      </c>
       <c r="I496" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="O496" t="s">
         <v>64</v>
@@ -17914,25 +17918,25 @@
     </row>
     <row r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G497" t="s">
+        <v>19</v>
+      </c>
+      <c r="H497" t="s">
         <v>1340</v>
       </c>
-      <c r="B497" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C497" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D497" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G497" t="s">
-        <v>19</v>
-      </c>
-      <c r="H497" t="s">
-        <v>1341</v>
-      </c>
       <c r="I497" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="O497" t="s">
         <v>64</v>
@@ -17940,25 +17944,25 @@
     </row>
     <row r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G498" t="s">
+        <v>19</v>
+      </c>
+      <c r="H498" t="s">
         <v>1342</v>
       </c>
-      <c r="B498" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C498" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D498" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G498" t="s">
-        <v>19</v>
-      </c>
-      <c r="H498" t="s">
-        <v>1343</v>
-      </c>
       <c r="I498" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="O498" t="s">
         <v>64</v>
@@ -17966,25 +17970,25 @@
     </row>
     <row r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G499" t="s">
+        <v>19</v>
+      </c>
+      <c r="H499" t="s">
         <v>1344</v>
       </c>
-      <c r="B499" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C499" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D499" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G499" t="s">
-        <v>19</v>
-      </c>
-      <c r="H499" t="s">
-        <v>1345</v>
-      </c>
       <c r="I499" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="O499" t="s">
         <v>64</v>
@@ -17992,25 +17996,25 @@
     </row>
     <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G500" t="s">
+        <v>19</v>
+      </c>
+      <c r="H500" t="s">
         <v>1346</v>
       </c>
-      <c r="B500" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C500" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D500" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G500" t="s">
-        <v>19</v>
-      </c>
-      <c r="H500" t="s">
-        <v>1347</v>
-      </c>
       <c r="I500" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="O500" t="s">
         <v>64</v>
@@ -18018,25 +18022,25 @@
     </row>
     <row r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G501" t="s">
+        <v>19</v>
+      </c>
+      <c r="H501" t="s">
         <v>1348</v>
       </c>
-      <c r="B501" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C501" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D501" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G501" t="s">
-        <v>19</v>
-      </c>
-      <c r="H501" t="s">
-        <v>1349</v>
-      </c>
       <c r="I501" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="O501" t="s">
         <v>64</v>
@@ -18044,25 +18048,25 @@
     </row>
     <row r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G502" t="s">
+        <v>19</v>
+      </c>
+      <c r="H502" t="s">
         <v>1350</v>
       </c>
-      <c r="B502" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C502" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D502" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G502" t="s">
-        <v>19</v>
-      </c>
-      <c r="H502" t="s">
-        <v>1351</v>
-      </c>
       <c r="I502" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="O502" t="s">
         <v>64</v>
@@ -18070,25 +18074,25 @@
     </row>
     <row r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G503" t="s">
+        <v>19</v>
+      </c>
+      <c r="H503" t="s">
         <v>1352</v>
       </c>
-      <c r="B503" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C503" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D503" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G503" t="s">
-        <v>19</v>
-      </c>
-      <c r="H503" t="s">
-        <v>1353</v>
-      </c>
       <c r="I503" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="O503" t="s">
         <v>64</v>
@@ -18096,25 +18100,25 @@
     </row>
     <row r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G504" t="s">
+        <v>19</v>
+      </c>
+      <c r="H504" t="s">
         <v>1354</v>
       </c>
-      <c r="B504" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C504" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D504" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G504" t="s">
-        <v>19</v>
-      </c>
-      <c r="H504" t="s">
-        <v>1355</v>
-      </c>
       <c r="I504" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="O504" t="s">
         <v>64</v>
@@ -18122,25 +18126,25 @@
     </row>
     <row r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G505" t="s">
+        <v>19</v>
+      </c>
+      <c r="H505" t="s">
         <v>1356</v>
       </c>
-      <c r="B505" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C505" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D505" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G505" t="s">
-        <v>19</v>
-      </c>
-      <c r="H505" t="s">
-        <v>1357</v>
-      </c>
       <c r="I505" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="O505" t="s">
         <v>64</v>
@@ -18148,25 +18152,25 @@
     </row>
     <row r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G506" t="s">
+        <v>19</v>
+      </c>
+      <c r="H506" t="s">
         <v>1358</v>
       </c>
-      <c r="B506" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C506" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D506" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G506" t="s">
-        <v>19</v>
-      </c>
-      <c r="H506" t="s">
-        <v>1359</v>
-      </c>
       <c r="I506" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="O506" t="s">
         <v>64</v>
@@ -18174,25 +18178,25 @@
     </row>
     <row r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G507" t="s">
+        <v>19</v>
+      </c>
+      <c r="H507" t="s">
         <v>1360</v>
       </c>
-      <c r="B507" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C507" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D507" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G507" t="s">
-        <v>19</v>
-      </c>
-      <c r="H507" t="s">
-        <v>1361</v>
-      </c>
       <c r="I507" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="O507" t="s">
         <v>64</v>
@@ -18200,25 +18204,25 @@
     </row>
     <row r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G508" t="s">
+        <v>19</v>
+      </c>
+      <c r="H508" t="s">
         <v>1362</v>
       </c>
-      <c r="B508" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C508" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D508" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G508" t="s">
-        <v>19</v>
-      </c>
-      <c r="H508" t="s">
-        <v>1363</v>
-      </c>
       <c r="I508" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="O508" t="s">
         <v>64</v>
@@ -18226,25 +18230,25 @@
     </row>
     <row r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G509" t="s">
+        <v>19</v>
+      </c>
+      <c r="H509" t="s">
         <v>1364</v>
       </c>
-      <c r="B509" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C509" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D509" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G509" t="s">
-        <v>19</v>
-      </c>
-      <c r="H509" t="s">
-        <v>1365</v>
-      </c>
       <c r="I509" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="O509" t="s">
         <v>64</v>
@@ -18252,25 +18256,25 @@
     </row>
     <row r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G510" t="s">
+        <v>19</v>
+      </c>
+      <c r="H510" t="s">
         <v>1366</v>
       </c>
-      <c r="B510" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C510" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D510" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G510" t="s">
-        <v>19</v>
-      </c>
-      <c r="H510" t="s">
-        <v>1367</v>
-      </c>
       <c r="I510" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="O510" t="s">
         <v>64</v>
@@ -18278,25 +18282,25 @@
     </row>
     <row r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G511" t="s">
+        <v>19</v>
+      </c>
+      <c r="H511" t="s">
         <v>1368</v>
       </c>
-      <c r="B511" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C511" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D511" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G511" t="s">
-        <v>19</v>
-      </c>
-      <c r="H511" t="s">
-        <v>1369</v>
-      </c>
       <c r="I511" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="O511" t="s">
         <v>64</v>
@@ -18304,25 +18308,25 @@
     </row>
     <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G512" t="s">
+        <v>19</v>
+      </c>
+      <c r="H512" t="s">
         <v>1370</v>
       </c>
-      <c r="B512" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C512" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D512" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G512" t="s">
-        <v>19</v>
-      </c>
-      <c r="H512" t="s">
-        <v>1371</v>
-      </c>
       <c r="I512" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="O512" t="s">
         <v>64</v>
@@ -18330,25 +18334,25 @@
     </row>
     <row r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G513" t="s">
+        <v>19</v>
+      </c>
+      <c r="H513" t="s">
         <v>1372</v>
       </c>
-      <c r="B513" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C513" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D513" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G513" t="s">
-        <v>19</v>
-      </c>
-      <c r="H513" t="s">
-        <v>1373</v>
-      </c>
       <c r="I513" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="O513" t="s">
         <v>64</v>
@@ -18356,25 +18360,25 @@
     </row>
     <row r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G514" t="s">
+        <v>19</v>
+      </c>
+      <c r="H514" t="s">
         <v>1374</v>
       </c>
-      <c r="B514" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C514" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D514" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G514" t="s">
-        <v>19</v>
-      </c>
-      <c r="H514" t="s">
-        <v>1375</v>
-      </c>
       <c r="I514" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="O514" t="s">
         <v>64</v>
@@ -18382,25 +18386,25 @@
     </row>
     <row r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G515" t="s">
+        <v>19</v>
+      </c>
+      <c r="H515" t="s">
         <v>1376</v>
       </c>
-      <c r="B515" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C515" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D515" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G515" t="s">
-        <v>19</v>
-      </c>
-      <c r="H515" t="s">
-        <v>1377</v>
-      </c>
       <c r="I515" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="O515" t="s">
         <v>64</v>
@@ -18408,25 +18412,25 @@
     </row>
     <row r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G516" t="s">
+        <v>19</v>
+      </c>
+      <c r="H516" t="s">
         <v>1378</v>
       </c>
-      <c r="B516" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C516" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D516" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G516" t="s">
-        <v>19</v>
-      </c>
-      <c r="H516" t="s">
-        <v>1379</v>
-      </c>
       <c r="I516" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="O516" t="s">
         <v>64</v>
@@ -18434,25 +18438,25 @@
     </row>
     <row r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G517" t="s">
+        <v>19</v>
+      </c>
+      <c r="H517" t="s">
         <v>1380</v>
       </c>
-      <c r="B517" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C517" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D517" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G517" t="s">
-        <v>19</v>
-      </c>
-      <c r="H517" t="s">
-        <v>1381</v>
-      </c>
       <c r="I517" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="O517" t="s">
         <v>64</v>
@@ -18460,25 +18464,25 @@
     </row>
     <row r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G518" t="s">
+        <v>19</v>
+      </c>
+      <c r="H518" t="s">
         <v>1382</v>
       </c>
-      <c r="B518" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C518" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D518" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G518" t="s">
-        <v>19</v>
-      </c>
-      <c r="H518" t="s">
-        <v>1383</v>
-      </c>
       <c r="I518" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="O518" t="s">
         <v>64</v>
@@ -18486,25 +18490,25 @@
     </row>
     <row r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G519" t="s">
+        <v>19</v>
+      </c>
+      <c r="H519" t="s">
         <v>1384</v>
       </c>
-      <c r="B519" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C519" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D519" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G519" t="s">
-        <v>19</v>
-      </c>
-      <c r="H519" t="s">
-        <v>1385</v>
-      </c>
       <c r="I519" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="O519" t="s">
         <v>64</v>
@@ -18512,25 +18516,25 @@
     </row>
     <row r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G520" t="s">
+        <v>19</v>
+      </c>
+      <c r="H520" t="s">
         <v>1386</v>
       </c>
-      <c r="B520" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C520" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D520" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G520" t="s">
-        <v>19</v>
-      </c>
-      <c r="H520" t="s">
-        <v>1387</v>
-      </c>
       <c r="I520" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="O520" t="s">
         <v>64</v>
@@ -18538,25 +18542,25 @@
     </row>
     <row r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G521" t="s">
+        <v>19</v>
+      </c>
+      <c r="H521" t="s">
         <v>1388</v>
       </c>
-      <c r="B521" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C521" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D521" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G521" t="s">
-        <v>19</v>
-      </c>
-      <c r="H521" t="s">
-        <v>1389</v>
-      </c>
       <c r="I521" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="O521" t="s">
         <v>64</v>
@@ -18564,25 +18568,25 @@
     </row>
     <row r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D522" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G522" t="s">
+        <v>19</v>
+      </c>
+      <c r="H522" t="s">
         <v>1390</v>
       </c>
-      <c r="B522" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C522" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D522" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G522" t="s">
-        <v>19</v>
-      </c>
-      <c r="H522" t="s">
-        <v>1391</v>
-      </c>
       <c r="I522" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="O522" t="s">
         <v>64</v>
@@ -18590,25 +18594,25 @@
     </row>
     <row r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G523" t="s">
+        <v>19</v>
+      </c>
+      <c r="H523" t="s">
         <v>1392</v>
       </c>
-      <c r="B523" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C523" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D523" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G523" t="s">
-        <v>19</v>
-      </c>
-      <c r="H523" t="s">
-        <v>1393</v>
-      </c>
       <c r="I523" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="O523" t="s">
         <v>64</v>
@@ -18616,25 +18620,25 @@
     </row>
     <row r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D524" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G524" t="s">
+        <v>19</v>
+      </c>
+      <c r="H524" t="s">
         <v>1394</v>
       </c>
-      <c r="B524" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C524" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D524" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G524" t="s">
-        <v>19</v>
-      </c>
-      <c r="H524" t="s">
-        <v>1395</v>
-      </c>
       <c r="I524" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="O524" t="s">
         <v>64</v>
@@ -18642,25 +18646,25 @@
     </row>
     <row r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G525" t="s">
+        <v>19</v>
+      </c>
+      <c r="H525" t="s">
         <v>1396</v>
       </c>
-      <c r="B525" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C525" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D525" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G525" t="s">
-        <v>19</v>
-      </c>
-      <c r="H525" t="s">
-        <v>1397</v>
-      </c>
       <c r="I525" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="O525" t="s">
         <v>64</v>
@@ -18668,25 +18672,25 @@
     </row>
     <row r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G526" t="s">
+        <v>19</v>
+      </c>
+      <c r="H526" t="s">
         <v>1398</v>
       </c>
-      <c r="B526" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C526" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D526" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G526" t="s">
-        <v>19</v>
-      </c>
-      <c r="H526" t="s">
-        <v>1399</v>
-      </c>
       <c r="I526" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="O526" t="s">
         <v>64</v>
@@ -18694,25 +18698,25 @@
     </row>
     <row r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D527" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G527" t="s">
+        <v>19</v>
+      </c>
+      <c r="H527" t="s">
         <v>1400</v>
       </c>
-      <c r="B527" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C527" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D527" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G527" t="s">
-        <v>19</v>
-      </c>
-      <c r="H527" t="s">
-        <v>1401</v>
-      </c>
       <c r="I527" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="O527" t="s">
         <v>64</v>
@@ -18720,25 +18724,25 @@
     </row>
     <row r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D528" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G528" t="s">
+        <v>19</v>
+      </c>
+      <c r="H528" t="s">
         <v>1402</v>
       </c>
-      <c r="B528" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C528" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D528" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G528" t="s">
-        <v>19</v>
-      </c>
-      <c r="H528" t="s">
-        <v>1403</v>
-      </c>
       <c r="I528" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="O528" t="s">
         <v>64</v>
@@ -18746,25 +18750,25 @@
     </row>
     <row r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G529" t="s">
+        <v>19</v>
+      </c>
+      <c r="H529" t="s">
         <v>1404</v>
       </c>
-      <c r="B529" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C529" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D529" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G529" t="s">
-        <v>19</v>
-      </c>
-      <c r="H529" t="s">
-        <v>1405</v>
-      </c>
       <c r="I529" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="O529" t="s">
         <v>64</v>
@@ -18772,25 +18776,25 @@
     </row>
     <row r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D530" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G530" t="s">
+        <v>19</v>
+      </c>
+      <c r="H530" t="s">
         <v>1406</v>
       </c>
-      <c r="B530" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C530" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D530" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G530" t="s">
-        <v>19</v>
-      </c>
-      <c r="H530" t="s">
-        <v>1407</v>
-      </c>
       <c r="I530" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="O530" t="s">
         <v>64</v>
@@ -18798,25 +18802,25 @@
     </row>
     <row r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D531" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G531" t="s">
+        <v>19</v>
+      </c>
+      <c r="H531" t="s">
         <v>1408</v>
       </c>
-      <c r="B531" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C531" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D531" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G531" t="s">
-        <v>19</v>
-      </c>
-      <c r="H531" t="s">
-        <v>1409</v>
-      </c>
       <c r="I531" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="O531" t="s">
         <v>64</v>
@@ -18824,25 +18828,25 @@
     </row>
     <row r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D532" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G532" t="s">
+        <v>19</v>
+      </c>
+      <c r="H532" t="s">
         <v>1410</v>
       </c>
-      <c r="B532" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C532" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D532" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G532" t="s">
-        <v>19</v>
-      </c>
-      <c r="H532" t="s">
-        <v>1411</v>
-      </c>
       <c r="I532" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="O532" t="s">
         <v>64</v>
